--- a/medicine/Enfance/Cécile_Benoist/Cécile_Benoist.xlsx
+++ b/medicine/Enfance/Cécile_Benoist/Cécile_Benoist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Benoist</t>
+          <t>Cécile_Benoist</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cécile Benoist est une écrivaine française en littérature jeunesse, journaliste et sociologue, née en 1977 à Niort[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cécile Benoist est une écrivaine française en littérature jeunesse, journaliste et sociologue, née en 1977 à Niort.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Benoist</t>
+          <t>Cécile_Benoist</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Parcours universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur en sociologie, elle a soutenu en 2004 à Toulouse 2 une thèse sur les pratiques autour du conte dans les médiathèques. La thèse, sous la direction de Anne Sauvageot s'intitulait La parole et le livre dans le contexte des médiathèques : étude de pratiques autour du conte[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur en sociologie, elle a soutenu en 2004 à Toulouse 2 une thèse sur les pratiques autour du conte dans les médiathèques. La thèse, sous la direction de Anne Sauvageot s'intitulait La parole et le livre dans le contexte des médiathèques : étude de pratiques autour du conte.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Benoist</t>
+          <t>Cécile_Benoist</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Champs de compétence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle écrit des textes de fiction, des documentaires (de l’imagier à l’essai), des livres-jeux, des articles pour la presse et des contenus web. Elle s'intéresse aux relations entre l’homme et l’environnement, aux peuples et aux cultures du monde[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle écrit des textes de fiction, des documentaires (de l’imagier à l’essai), des livres-jeux, des articles pour la presse et des contenus web. Elle s'intéresse aux relations entre l’homme et l’environnement, aux peuples et aux cultures du monde.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Benoist</t>
+          <t>Cécile_Benoist</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,14 +589,16 @@
           <t>Œuvres[4]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2021 :
 Au-delà des écrans - 4 histoires pour déjouer les pièges du numérique, illustré par Anatole Aufrère, chez À dos d'âne,  (ISBN 978-2-376-06108-3)
 Le livre du feu, illustrations de Christophe Merlin, Actes Sud junior
 2018 :
-Un arbre, une histoire, illustré par Charlotte Gastaut, chez Actes Sud Junior,  (ISBN 978-2-330-11145-8)[5],[6]
-Les trains, illustrations de Didier Balicevic, Yating Hung, Patrick Morize..., chez Milan,  (ISBN 978-2-408-00546-7)[7]
+Un arbre, une histoire, illustré par Charlotte Gastaut, chez Actes Sud Junior,  (ISBN 978-2-330-11145-8),
+Les trains, illustrations de Didier Balicevic, Yating Hung, Patrick Morize..., chez Milan,  (ISBN 978-2-408-00546-7)
 2017 : J'entends les éclats qui giclent, illustrations de Évelyne Mary, chez les Éclairs,  (ISBN 979-10-95668-08-4)
 2016 :
 Tour du monde en terres indigènes, illustrations de Julien Billaudeau, chez Actes Sud Junior,  (ISBN 978-2-330-06625-3)
@@ -597,8 +615,8 @@
 La forêt, Cécile Benoist et Sébastien Chebret, chez Milan,  (ISBN 978-2-7459-5266-0)
 La banquise, Cécile Benoist et Judith Gueyfier, chez Milan,  (ISBN 978-2-7459-5267-7)
 2010 : Mon encyclo de la montagne, Milan,  (ISBN 978-2-7459-4619-5)
-2007 : Médiathèques a l heure du conte : enquête ethnographique et regard socio-anthropologique, chez PUB,  (ISBN 978-2-86781-449-5)[8]
-2005 : Occasions manquées, le Félin-Kiron[9]
+2007 : Médiathèques a l heure du conte : enquête ethnographique et regard socio-anthropologique, chez PUB,  (ISBN 978-2-86781-449-5)
+2005 : Occasions manquées, le Félin-Kiron
 2004 : Parole et le livre dans le contexte des médiathèques : Étude de pratiques autour du conte.</t>
         </is>
       </c>
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Benoist</t>
+          <t>Cécile_Benoist</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,9 +645,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sélection Prix Sorcières 2022[10] Catégorie Carrément sorcières non fiction, pour Le livre du feu, illustré par Christophe Merlin</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sélection Prix Sorcières 2022 Catégorie Carrément sorcières non fiction, pour Le livre du feu, illustré par Christophe Merlin</t>
         </is>
       </c>
     </row>
